--- a/ig/amelioration-mapping/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-12T09:47:28+00:00</t>
+    <t>2024-01-19T15:31:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/amelioration-mapping/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T15:31:36+00:00</t>
+    <t>2024-01-22T16:15:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/amelioration-mapping/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-22T16:15:43+00:00</t>
+    <t>2024-01-24T16:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/amelioration-mapping/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-24T16:02:26+00:00</t>
+    <t>2024-02-06T12:55:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -544,7 +544,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J237-RegionOM-ROR/FHIR/JDV-J237-RegionOM-ROR</t>
   </si>
   <si>
-    <t>regionSource</t>
+    <t>regionSource : JDV-J237-RegionOM-ROR</t>
   </si>
   <si>
     <t>Practitioner.implicitRules</t>
@@ -1116,7 +1116,7 @@
     <t>./TitleCode</t>
   </si>
   <si>
-    <t>PersonnePhysique.civilite</t>
+    <t>PersonnePhysique.civilite : JDV-J207-Civilite-ROR</t>
   </si>
   <si>
     <t>Practitioner.name.suffix</t>
@@ -1218,7 +1218,7 @@
     <t>Extension créée dans le cadre du ROR spécifiant le canal ou la manière dont s'établit la communication</t>
   </si>
   <si>
-    <t>adresseMSS.canal</t>
+    <t>adresseMSS.canal : JDV-J225-CanalCommunication-ROR</t>
   </si>
   <si>
     <t>Practitioner.telecom.extension:ror-telecom-usage</t>
@@ -1256,7 +1256,7 @@
     <t>Extension créée dans le cadre du ROR qui permet de définir le niveau de restriction de l'accès aux attributs de la classe Télécommunication.</t>
   </si>
   <si>
-    <t>adresseMSS.niveauConfidentialite</t>
+    <t>adresseMSS.niveauConfidentialite : JDV-J222-NiveauConfidentialite-ROR</t>
   </si>
   <si>
     <t>Practitioner.telecom.system</t>
@@ -1989,7 +1989,7 @@
     <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="52.3828125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="54.96875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="67.07421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/amelioration-mapping/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T12:55:52+00:00</t>
+    <t>2024-02-16T10:42:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
